--- a/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE8FB54C-F0EA-4F4C-9CDB-AE03DCDDA7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95836B8F-5B2A-41BF-A8F1-35273275350B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CE1D85B-C98B-4F32-A22D-A29C5B058E3F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9C5D2140-C21F-47A5-9766-153FD5D22871}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="546">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1477 +77,1525 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>3,66%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>11,49%</t>
@@ -1556,91 +1604,79 @@
     <t>9,63%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>85,58%</t>
+    <t>85,51%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>95,66%</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAACA748-CAA1-4BB2-B570-17C9B8977A31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2244BA30-2A70-491F-8301-D4DA6EF65D9A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2501,13 +2537,13 @@
         <v>7806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2516,13 +2552,13 @@
         <v>11665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2573,13 @@
         <v>314986</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -2552,13 +2588,13 @@
         <v>327606</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>633</v>
@@ -2567,13 +2603,13 @@
         <v>642593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2665,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2641,13 +2677,13 @@
         <v>7191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2656,13 +2692,13 @@
         <v>15298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2671,13 +2707,13 @@
         <v>22489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2728,13 @@
         <v>351480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -2707,13 +2743,13 @@
         <v>356158</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>723</v>
@@ -2722,13 +2758,13 @@
         <v>707638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2987,13 @@
         <v>5655</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2966,13 +3002,13 @@
         <v>10281</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2981,13 +3017,13 @@
         <v>15936</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3038,13 @@
         <v>265156</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -3017,13 +3053,13 @@
         <v>267863</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -3032,13 +3068,13 @@
         <v>533019</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3130,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3106,13 +3142,13 @@
         <v>25198</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3121,13 +3157,13 @@
         <v>24285</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -3136,13 +3172,13 @@
         <v>49483</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3193,13 @@
         <v>589829</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -3172,13 +3208,13 @@
         <v>613934</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1170</v>
@@ -3187,13 +3223,13 @@
         <v>1203763</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,7 +3285,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3261,13 +3297,13 @@
         <v>31309</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3276,13 +3312,13 @@
         <v>52510</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -3291,13 +3327,13 @@
         <v>83819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3348,13 @@
         <v>711468</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>697</v>
@@ -3327,13 +3363,13 @@
         <v>731001</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1398</v>
@@ -3342,13 +3378,13 @@
         <v>1442469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3452,13 @@
         <v>95292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>164</v>
@@ -3431,13 +3467,13 @@
         <v>171532</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -3446,13 +3482,13 @@
         <v>266824</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,16 +3500,16 @@
         <v>3115</v>
       </c>
       <c r="D29" s="7">
-        <v>3180233</v>
+        <v>3180234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>3133</v>
@@ -3482,28 +3518,28 @@
         <v>3207666</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>6248</v>
       </c>
       <c r="N29" s="7">
-        <v>6387898</v>
+        <v>6387899</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,7 +3551,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3545,7 +3581,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3559,7 +3595,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249DBC4-4DC6-4DE1-BB34-ED8BDDC7BBD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E7CA91-8203-4D59-B31F-D2AA678949FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,7 +3636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3705,39 +3741,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,39 +3786,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,39 +3831,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3880,13 @@
         <v>14725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3859,13 +3895,13 @@
         <v>26788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -3874,13 +3910,13 @@
         <v>41513</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3931,13 @@
         <v>490802</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -3910,13 +3946,13 @@
         <v>495943</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -3925,13 +3961,13 @@
         <v>986745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4035,13 @@
         <v>5098</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4014,13 +4050,13 @@
         <v>20196</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4029,13 +4065,13 @@
         <v>25295</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4086,13 @@
         <v>318018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -4065,13 +4101,13 @@
         <v>320824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -4080,13 +4116,13 @@
         <v>638841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,7 +4178,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4154,13 +4190,13 @@
         <v>18174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4169,13 +4205,13 @@
         <v>38861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4184,13 +4220,13 @@
         <v>57035</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4241,13 @@
         <v>646012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>582</v>
@@ -4220,13 +4256,13 @@
         <v>628417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>1188</v>
@@ -4235,13 +4271,13 @@
         <v>1274429</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4345,13 @@
         <v>8009</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4324,13 +4360,13 @@
         <v>21697</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4339,10 +4375,10 @@
         <v>29706</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>231</v>
@@ -4366,7 +4402,7 @@
         <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4375,13 +4411,13 @@
         <v>197894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -4390,13 +4426,13 @@
         <v>402503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4500,13 @@
         <v>6269</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -4479,13 +4515,13 @@
         <v>16308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4494,13 +4530,13 @@
         <v>22577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4551,7 @@
         <v>267712</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>249</v>
@@ -4607,7 +4643,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4649,13 +4685,13 @@
         <v>41340</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4706,13 @@
         <v>654337</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>607</v>
@@ -4685,13 +4721,13 @@
         <v>660964</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1217</v>
@@ -4700,13 +4736,13 @@
         <v>1315301</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4774,13 +4810,13 @@
         <v>10603</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -4789,13 +4825,13 @@
         <v>49779</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -4804,13 +4840,13 @@
         <v>60381</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4861,13 @@
         <v>766369</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>711</v>
@@ -4840,13 +4876,13 @@
         <v>771741</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>1416</v>
@@ -4855,13 +4891,13 @@
         <v>1538111</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,13 +4965,13 @@
         <v>71329</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>191</v>
@@ -4944,13 +4980,13 @@
         <v>206519</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>254</v>
@@ -4959,13 +4995,13 @@
         <v>277847</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>297</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +5016,13 @@
         <v>3347859</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>3095</v>
@@ -4995,13 +5031,13 @@
         <v>3338615</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>6234</v>
@@ -5010,13 +5046,13 @@
         <v>6686475</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>303</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5108,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5096,7 +5132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE51DB4-85D0-4121-86E2-63C079F781D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9ED283-1AAC-4E8D-AAE3-EAB0870FD370}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5113,7 +5149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5220,13 +5256,13 @@
         <v>5885</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5235,13 +5271,13 @@
         <v>11343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5250,13 +5286,13 @@
         <v>17228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5307,13 @@
         <v>287876</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -5286,13 +5322,13 @@
         <v>277360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -5301,13 +5337,13 @@
         <v>565236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5411,13 @@
         <v>6953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5390,13 +5426,13 @@
         <v>15360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -5405,10 +5441,10 @@
         <v>22313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>261</v>
@@ -5426,13 +5462,13 @@
         <v>495622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -5441,13 +5477,13 @@
         <v>507724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
@@ -5456,13 +5492,13 @@
         <v>1003346</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5566,13 @@
         <v>7239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5545,13 +5581,13 @@
         <v>11265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5560,13 +5596,13 @@
         <v>18504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5617,13 @@
         <v>311326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>322</v>
@@ -5596,13 +5632,13 @@
         <v>325044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>648</v>
@@ -5611,13 +5647,13 @@
         <v>636370</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,7 +5709,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5685,13 +5721,13 @@
         <v>6220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5700,13 +5736,13 @@
         <v>16064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5715,13 +5751,13 @@
         <v>22284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5772,13 @@
         <v>363744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -5751,13 +5787,13 @@
         <v>371219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>691</v>
@@ -5766,13 +5802,13 @@
         <v>734963</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5876,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5855,13 +5891,13 @@
         <v>12730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5870,13 +5906,13 @@
         <v>12730</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,10 +5927,10 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5906,13 +5942,13 @@
         <v>205857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>424</v>
@@ -5921,13 +5957,13 @@
         <v>417078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,13 +6031,13 @@
         <v>5333</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -6010,7 +6046,7 @@
         <v>13298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>371</v>
@@ -6049,10 +6085,10 @@
         <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6061,13 +6097,13 @@
         <v>259817</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
         <v>505</v>
@@ -6076,13 +6112,13 @@
         <v>517607</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,7 +6174,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6150,13 +6186,13 @@
         <v>9960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6165,13 +6201,13 @@
         <v>23583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -6180,13 +6216,13 @@
         <v>33542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6237,13 @@
         <v>646598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="H23" s="7">
         <v>625</v>
@@ -6216,13 +6252,13 @@
         <v>667711</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="M23" s="7">
         <v>1195</v>
@@ -6231,13 +6267,13 @@
         <v>1314310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>398</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,7 +6329,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6305,13 +6341,13 @@
         <v>3606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -6320,13 +6356,13 @@
         <v>30915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>405</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -6335,13 +6371,13 @@
         <v>34522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6392,13 @@
         <v>774977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -6371,13 +6407,13 @@
         <v>795252</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>415</v>
       </c>
       <c r="M26" s="7">
         <v>1476</v>
@@ -6386,13 +6422,13 @@
         <v>1570228</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6496,13 @@
         <v>45195</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H28" s="7">
         <v>119</v>
@@ -6475,13 +6511,13 @@
         <v>134558</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="M28" s="7">
         <v>165</v>
@@ -6490,13 +6526,13 @@
         <v>179753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6547,13 @@
         <v>3349155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="H29" s="7">
         <v>3219</v>
@@ -6526,13 +6562,13 @@
         <v>3409984</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M29" s="7">
         <v>6404</v>
@@ -6541,13 +6577,13 @@
         <v>6759139</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,7 +6639,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6627,7 +6663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16A02F2-B8F7-41C1-8023-4D270B6E4D28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83728679-0F4D-4E41-9886-E6132EA30918}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6644,7 +6680,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6751,13 +6787,13 @@
         <v>721</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -6766,13 +6802,13 @@
         <v>9347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6781,13 +6817,13 @@
         <v>10068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6838,13 @@
         <v>259577</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H5" s="7">
         <v>519</v>
@@ -6817,13 +6853,13 @@
         <v>262056</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>849</v>
@@ -6832,13 +6868,13 @@
         <v>521632</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>361</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6942,13 @@
         <v>3720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -6921,13 +6957,13 @@
         <v>10303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>439</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>455</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -6936,13 +6972,13 @@
         <v>14023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6993,13 @@
         <v>514507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H8" s="7">
         <v>699</v>
@@ -6972,13 +7008,13 @@
         <v>541970</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>460</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>445</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>1077</v>
@@ -6987,13 +7023,13 @@
         <v>1056477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7097,13 @@
         <v>5906</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>449</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -7076,13 +7112,13 @@
         <v>16996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -7091,13 +7127,13 @@
         <v>22902</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>454</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7148,13 @@
         <v>315814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -7127,13 +7163,13 @@
         <v>356288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>859</v>
@@ -7142,13 +7178,13 @@
         <v>672101</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>462</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,7 +7240,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7219,10 +7255,10 @@
         <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -7231,13 +7267,13 @@
         <v>20112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -7246,13 +7282,13 @@
         <v>31286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7303,13 @@
         <v>311066</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>564</v>
@@ -7282,13 +7318,13 @@
         <v>408088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -7297,13 +7333,13 @@
         <v>719154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,13 +7407,13 @@
         <v>1269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>476</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -7386,13 +7422,13 @@
         <v>8339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>479</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -7401,13 +7437,13 @@
         <v>9609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>479</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,13 +7458,13 @@
         <v>195479</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>483</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -7437,13 +7473,13 @@
         <v>223564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>487</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>748</v>
@@ -7452,13 +7488,13 @@
         <v>419042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,13 +7562,13 @@
         <v>7253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>498</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -7541,13 +7577,13 @@
         <v>15277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -7556,13 +7592,13 @@
         <v>22530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7613,13 @@
         <v>269970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>505</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="H20" s="7">
         <v>429</v>
@@ -7592,13 +7628,13 @@
         <v>260345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>447</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="M20" s="7">
         <v>787</v>
@@ -7610,10 +7646,10 @@
         <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,7 +7705,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7681,13 +7717,13 @@
         <v>14450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>510</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -7696,13 +7732,13 @@
         <v>31733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -7711,13 +7747,13 @@
         <v>46183</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>468</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7768,13 @@
         <v>612549</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>353</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>304</v>
+        <v>27</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>514</v>
       </c>
       <c r="H23" s="7">
         <v>908</v>
@@ -7747,13 +7783,13 @@
         <v>772470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="M23" s="7">
         <v>1490</v>
@@ -7762,13 +7798,13 @@
         <v>1385019</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7824,7 +7860,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7836,13 +7872,13 @@
         <v>21382</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -7851,13 +7887,13 @@
         <v>99433</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -7866,13 +7902,13 @@
         <v>120815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>506</v>
+        <v>225</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7923,13 @@
         <v>838046</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>26</v>
+        <v>398</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>509</v>
+        <v>116</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>524</v>
       </c>
       <c r="H26" s="7">
         <v>925</v>
@@ -7902,13 +7938,13 @@
         <v>765598</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="M26" s="7">
         <v>1660</v>
@@ -7917,13 +7953,13 @@
         <v>1603644</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>513</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7991,28 +8027,28 @@
         <v>65876</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="H28" s="7">
         <v>335</v>
       </c>
       <c r="I28" s="7">
-        <v>211540</v>
+        <v>211539</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="M28" s="7">
         <v>416</v>
@@ -8021,13 +8057,13 @@
         <v>277415</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>523</v>
+        <v>438</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8042,13 +8078,13 @@
         <v>3317006</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="H29" s="7">
         <v>5023</v>
@@ -8057,28 +8093,28 @@
         <v>3590379</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M29" s="7">
         <v>8315</v>
       </c>
       <c r="N29" s="7">
-        <v>6907385</v>
+        <v>6907386</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>533</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,7 +8141,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3801919</v>
+        <v>3801918</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8120,7 +8156,7 @@
         <v>8731</v>
       </c>
       <c r="N30" s="7">
-        <v>7184800</v>
+        <v>7184801</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8134,7 +8170,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95836B8F-5B2A-41BF-A8F1-35273275350B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF3B51E-D2B8-4834-9F90-2ABE5E2C5CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9C5D2140-C21F-47A5-9766-153FD5D22871}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7BB5004-07E6-4AED-99BF-E5FA235F4727}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="518">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1554 +77,1482 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
     <t>91,51%</t>
   </si>
   <si>
@@ -1634,18 +1562,12 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>2,43%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
     <t>6,43%</t>
   </si>
   <si>
@@ -1661,16 +1583,10 @@
     <t>97,57%</t>
   </si>
   <si>
-    <t>98,49%</t>
-  </si>
-  <si>
     <t>94,44%</t>
   </si>
   <si>
     <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
   </si>
   <si>
     <t>96,14%</t>
@@ -2088,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2244BA30-2A70-491F-8301-D4DA6EF65D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD327CF-57EC-423B-8659-AEF8A9AF5EA6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2710,10 +2626,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2644,13 @@
         <v>351480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -2743,13 +2659,13 @@
         <v>356158</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>723</v>
@@ -2758,13 +2674,13 @@
         <v>707638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,7 +2736,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2832,13 +2748,13 @@
         <v>8869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2847,13 +2763,13 @@
         <v>20918</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -2862,13 +2778,13 @@
         <v>29787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2799,13 @@
         <v>194439</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -2898,13 +2814,13 @@
         <v>186750</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>377</v>
@@ -2913,13 +2829,13 @@
         <v>381189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2891,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2987,13 +2903,13 @@
         <v>5655</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3002,13 +2918,13 @@
         <v>10281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3017,13 +2933,13 @@
         <v>15936</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +2954,13 @@
         <v>265156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -3053,13 +2969,13 @@
         <v>267863</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -3068,13 +2984,13 @@
         <v>533019</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,7 +3046,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3142,13 +3058,13 @@
         <v>25198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3157,13 +3073,13 @@
         <v>24285</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -3172,13 +3088,13 @@
         <v>49483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3109,13 @@
         <v>589829</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -3208,13 +3124,13 @@
         <v>613934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1170</v>
@@ -3223,13 +3139,13 @@
         <v>1203763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +3201,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3297,13 +3213,13 @@
         <v>31309</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3312,13 +3228,13 @@
         <v>52510</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -3327,13 +3243,13 @@
         <v>83819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3264,13 @@
         <v>711468</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>697</v>
@@ -3363,13 +3279,13 @@
         <v>731001</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1398</v>
@@ -3378,13 +3294,13 @@
         <v>1442469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3368,13 @@
         <v>95292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>164</v>
@@ -3467,13 +3383,13 @@
         <v>171532</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -3482,13 +3398,13 @@
         <v>266824</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,16 +3416,16 @@
         <v>3115</v>
       </c>
       <c r="D29" s="7">
-        <v>3180234</v>
+        <v>3180233</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>3133</v>
@@ -3518,13 +3434,13 @@
         <v>3207666</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>6248</v>
@@ -3533,13 +3449,13 @@
         <v>6387899</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3467,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3595,7 +3511,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3619,7 +3535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E7CA91-8203-4D59-B31F-D2AA678949FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B885C76-37DE-4849-AABD-442A353176FF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3636,7 +3552,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3741,39 +3657,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,39 +3702,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,39 +3747,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3796,13 @@
         <v>14725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3895,13 +3811,13 @@
         <v>26788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -3910,13 +3826,13 @@
         <v>41513</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3847,13 @@
         <v>490802</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -3946,13 +3862,13 @@
         <v>495943</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -3961,13 +3877,13 @@
         <v>986745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +3951,13 @@
         <v>5098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4050,13 +3966,13 @@
         <v>20196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4065,13 +3981,13 @@
         <v>25295</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4002,13 @@
         <v>318018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -4101,13 +4017,13 @@
         <v>320824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -4116,13 +4032,13 @@
         <v>638841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4106,13 @@
         <v>18174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4205,13 +4121,13 @@
         <v>38861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4220,13 +4136,13 @@
         <v>57035</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4157,13 @@
         <v>646012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>582</v>
@@ -4256,13 +4172,13 @@
         <v>628417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1188</v>
@@ -4271,13 +4187,13 @@
         <v>1274429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,7 +4249,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4345,13 +4261,13 @@
         <v>8009</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4360,13 +4276,13 @@
         <v>21697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4375,13 +4291,13 @@
         <v>29706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4312,13 @@
         <v>204609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4411,13 +4327,13 @@
         <v>197894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -4426,13 +4342,13 @@
         <v>402503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,7 +4404,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4500,13 +4416,13 @@
         <v>6269</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -4515,13 +4431,13 @@
         <v>16308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4530,13 +4446,13 @@
         <v>22577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4467,13 @@
         <v>267712</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -4566,13 +4482,13 @@
         <v>262832</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>507</v>
@@ -4581,13 +4497,13 @@
         <v>530544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,7 +4559,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4655,13 +4571,13 @@
         <v>8451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4670,13 +4586,13 @@
         <v>32889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -4688,10 +4604,10 @@
         <v>59</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4622,13 @@
         <v>654337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>607</v>
@@ -4721,13 +4637,13 @@
         <v>660964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1217</v>
@@ -4739,10 +4655,10 @@
         <v>67</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,7 +4714,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4810,13 +4726,13 @@
         <v>10603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -4825,13 +4741,13 @@
         <v>49779</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -4840,13 +4756,13 @@
         <v>60381</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4777,13 @@
         <v>766369</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>711</v>
@@ -4876,13 +4792,13 @@
         <v>771741</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>1416</v>
@@ -4891,13 +4807,13 @@
         <v>1538111</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4881,13 @@
         <v>71329</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H28" s="7">
         <v>191</v>
@@ -4980,13 +4896,13 @@
         <v>206519</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="M28" s="7">
         <v>254</v>
@@ -4995,13 +4911,13 @@
         <v>277847</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>291</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4932,13 @@
         <v>3347859</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H29" s="7">
         <v>3095</v>
@@ -5031,13 +4947,13 @@
         <v>3338615</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>299</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>6234</v>
@@ -5046,13 +4962,13 @@
         <v>6686475</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>296</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,7 +5024,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5132,7 +5048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9ED283-1AAC-4E8D-AAE3-EAB0870FD370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4A202F-758A-4598-A7D6-244A7F48FD79}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5149,7 +5065,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5259,10 +5175,10 @@
         <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5271,13 +5187,13 @@
         <v>11343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5286,13 +5202,13 @@
         <v>17228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5223,13 @@
         <v>287876</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -5322,13 +5238,13 @@
         <v>277360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -5337,10 +5253,10 @@
         <v>565236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>311</v>
@@ -5414,10 +5330,10 @@
         <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5426,13 +5342,13 @@
         <v>15360</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -5441,13 +5357,13 @@
         <v>22313</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,7 +5384,7 @@
         <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -5477,13 +5393,13 @@
         <v>507724</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
@@ -5492,10 +5408,10 @@
         <v>1003346</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>327</v>
@@ -5572,7 +5488,7 @@
         <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5581,13 +5497,13 @@
         <v>11265</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5596,13 +5512,13 @@
         <v>18504</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,10 +5536,10 @@
         <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>322</v>
@@ -5632,13 +5548,13 @@
         <v>325044</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>648</v>
@@ -5647,10 +5563,10 @@
         <v>636370</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>343</v>
@@ -5721,13 +5637,13 @@
         <v>6220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5736,13 +5652,13 @@
         <v>16064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5751,13 +5667,13 @@
         <v>22284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5688,13 @@
         <v>363744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -5787,13 +5703,13 @@
         <v>371219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>691</v>
@@ -5802,10 +5718,10 @@
         <v>734963</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>355</v>
@@ -5864,7 +5780,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5882,7 +5798,7 @@
         <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5891,7 +5807,7 @@
         <v>12730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>358</v>
@@ -5906,7 +5822,7 @@
         <v>12730</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>360</v>
@@ -5930,7 +5846,7 @@
         <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5942,7 +5858,7 @@
         <v>205857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>363</v>
@@ -5957,7 +5873,7 @@
         <v>417078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>365</v>
@@ -6019,7 +5935,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6037,7 +5953,7 @@
         <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>369</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -6046,13 +5962,13 @@
         <v>13298</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6061,13 +5977,13 @@
         <v>18631</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +5998,13 @@
         <v>257790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6097,13 +6013,13 @@
         <v>259817</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>505</v>
@@ -6112,13 +6028,13 @@
         <v>517607</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>384</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,7 +6090,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6186,13 +6102,13 @@
         <v>9960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6201,13 +6117,13 @@
         <v>23583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -6216,13 +6132,13 @@
         <v>33542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6153,13 @@
         <v>646598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>625</v>
@@ -6252,13 +6168,13 @@
         <v>667711</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>1195</v>
@@ -6267,13 +6183,13 @@
         <v>1314310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>398</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,7 +6245,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6341,13 +6257,13 @@
         <v>3606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -6356,13 +6272,13 @@
         <v>30915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -6371,13 +6287,13 @@
         <v>34522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6308,13 @@
         <v>774977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -6407,13 +6323,13 @@
         <v>795252</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>414</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>1476</v>
@@ -6422,13 +6338,13 @@
         <v>1570228</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6412,13 @@
         <v>45195</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="H28" s="7">
         <v>119</v>
@@ -6511,13 +6427,13 @@
         <v>134558</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>423</v>
+        <v>319</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>424</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>165</v>
@@ -6526,13 +6442,13 @@
         <v>179753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>426</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6463,13 @@
         <v>3349155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>3219</v>
@@ -6562,13 +6478,13 @@
         <v>3409984</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>432</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>6404</v>
@@ -6577,13 +6493,13 @@
         <v>6759139</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>433</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,7 +6555,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6663,7 +6579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83728679-0F4D-4E41-9886-E6132EA30918}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513B26FE-3F51-4DA7-9A28-404E2A9D1685}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6680,7 +6596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6787,13 +6703,13 @@
         <v>721</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>356</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -6802,13 +6718,13 @@
         <v>9347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6817,13 +6733,13 @@
         <v>10068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,10 +6754,10 @@
         <v>259577</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>362</v>
@@ -6853,13 +6769,13 @@
         <v>262056</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="M5" s="7">
         <v>849</v>
@@ -6868,13 +6784,13 @@
         <v>521632</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6858,13 @@
         <v>3720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -6957,13 +6873,13 @@
         <v>10303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>454</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -6972,13 +6888,13 @@
         <v>14023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +6909,13 @@
         <v>514507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="H8" s="7">
         <v>699</v>
@@ -7008,10 +6924,10 @@
         <v>541970</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>459</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>41</v>
@@ -7023,13 +6939,13 @@
         <v>1056477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7013,13 @@
         <v>5906</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>462</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>463</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -7112,13 +7028,13 @@
         <v>16996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -7127,13 +7043,13 @@
         <v>22902</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>446</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,13 +7064,13 @@
         <v>315814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>470</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -7163,13 +7079,13 @@
         <v>356288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="M11" s="7">
         <v>859</v>
@@ -7178,13 +7094,13 @@
         <v>672101</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>452</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>474</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7168,13 @@
         <v>11174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>476</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -7267,13 +7183,13 @@
         <v>20112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -7282,13 +7198,13 @@
         <v>31286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,10 +7219,10 @@
         <v>311066</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>482</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>66</v>
@@ -7318,13 +7234,13 @@
         <v>408088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -7333,13 +7249,13 @@
         <v>719154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,7 +7311,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7407,13 +7323,13 @@
         <v>1269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -7422,13 +7338,13 @@
         <v>8339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -7437,13 +7353,13 @@
         <v>9609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>491</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,10 +7374,10 @@
         <v>195479</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>362</v>
@@ -7473,13 +7389,13 @@
         <v>223564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>748</v>
@@ -7488,13 +7404,13 @@
         <v>419042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>497</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,7 +7466,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7562,13 +7478,13 @@
         <v>7253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -7577,13 +7493,13 @@
         <v>15277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>502</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -7592,13 +7508,13 @@
         <v>22530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,13 +7529,13 @@
         <v>269970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="H20" s="7">
         <v>429</v>
@@ -7628,13 +7544,13 @@
         <v>260345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>507</v>
+        <v>25</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>787</v>
@@ -7643,13 +7559,13 @@
         <v>530315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,7 +7621,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7717,10 +7633,10 @@
         <v>14450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>17</v>
@@ -7732,13 +7648,13 @@
         <v>31733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -7747,10 +7663,10 @@
         <v>46183</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>73</v>
@@ -7768,13 +7684,13 @@
         <v>612549</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>353</v>
+        <v>489</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="H23" s="7">
         <v>908</v>
@@ -7783,13 +7699,13 @@
         <v>772470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="M23" s="7">
         <v>1490</v>
@@ -7798,13 +7714,13 @@
         <v>1385019</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7860,7 +7776,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7872,13 +7788,13 @@
         <v>21382</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -7887,13 +7803,13 @@
         <v>99433</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -7902,13 +7818,13 @@
         <v>120815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>225</v>
+        <v>497</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,13 +7839,13 @@
         <v>838046</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>398</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>925</v>
@@ -7938,13 +7854,13 @@
         <v>765598</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>527</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>1660</v>
@@ -7953,13 +7869,13 @@
         <v>1603644</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>503</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,13 +7943,13 @@
         <v>65876</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>531</v>
+        <v>360</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="H28" s="7">
         <v>335</v>
@@ -8042,13 +7958,13 @@
         <v>211539</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>534</v>
+        <v>284</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="M28" s="7">
         <v>416</v>
@@ -8057,13 +7973,13 @@
         <v>277415</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,13 +7994,13 @@
         <v>3317006</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>540</v>
+        <v>366</v>
       </c>
       <c r="H29" s="7">
         <v>5023</v>
@@ -8093,13 +8009,13 @@
         <v>3590379</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>543</v>
+        <v>291</v>
       </c>
       <c r="M29" s="7">
         <v>8315</v>
@@ -8108,13 +8024,13 @@
         <v>6907386</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8170,7 +8086,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF3B51E-D2B8-4834-9F90-2ABE5E2C5CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F6A6E30-DCBF-4669-A3E2-535170911D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7BB5004-07E6-4AED-99BF-E5FA235F4727}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7143C75C-5528-4B52-8657-09CCECEDA2FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="534">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1528 +71,1576 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD327CF-57EC-423B-8659-AEF8A9AF5EA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F6F846-0599-4F8F-BE3C-5953D834C8EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2453,13 +2501,13 @@
         <v>7806</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2468,13 +2516,13 @@
         <v>11665</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2537,13 @@
         <v>314986</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -2504,13 +2552,13 @@
         <v>327606</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>633</v>
@@ -2519,13 +2567,13 @@
         <v>642593</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,7 +2629,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2593,13 +2641,13 @@
         <v>7191</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2608,13 +2656,13 @@
         <v>15298</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2623,13 +2671,13 @@
         <v>22489</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2692,13 @@
         <v>351480</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -2659,13 +2707,13 @@
         <v>356158</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>723</v>
@@ -2674,13 +2722,13 @@
         <v>707638</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,7 +2784,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2748,13 +2796,13 @@
         <v>8869</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2763,13 +2811,13 @@
         <v>20918</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -2778,13 +2826,13 @@
         <v>29787</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2847,13 @@
         <v>194439</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -2814,13 +2862,13 @@
         <v>186750</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>377</v>
@@ -2829,13 +2877,13 @@
         <v>381189</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,7 +2939,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2903,13 +2951,13 @@
         <v>5655</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2918,13 +2966,13 @@
         <v>10281</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2933,13 +2981,13 @@
         <v>15936</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,7 +3002,7 @@
         <v>265156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>116</v>
@@ -3386,10 +3434,10 @@
         <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -3398,13 +3446,13 @@
         <v>266824</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,19 +3488,19 @@
         <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>6248</v>
       </c>
       <c r="N29" s="7">
-        <v>6387899</v>
+        <v>6387898</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>177</v>
@@ -3497,7 +3545,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3535,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B885C76-37DE-4849-AABD-442A353176FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45D610-C521-4D18-9D9F-D0C7DC3C1A85}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3829,10 +3877,10 @@
         <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,10 +3898,10 @@
         <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -3862,13 +3910,13 @@
         <v>495943</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -3877,13 +3925,13 @@
         <v>986745</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3999,13 @@
         <v>5098</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3966,13 +4014,13 @@
         <v>20196</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3984,10 +4032,10 @@
         <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4050,13 @@
         <v>318018</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -4017,13 +4065,13 @@
         <v>320824</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -4035,10 +4083,10 @@
         <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,7 +4142,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4106,13 +4154,13 @@
         <v>18174</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4121,13 +4169,13 @@
         <v>38861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4136,13 +4184,13 @@
         <v>57035</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4205,13 @@
         <v>646012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>582</v>
@@ -4172,13 +4220,13 @@
         <v>628417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>1188</v>
@@ -4187,13 +4235,13 @@
         <v>1274429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4297,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4261,13 +4309,13 @@
         <v>8009</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4276,13 +4324,13 @@
         <v>21697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4291,13 +4339,13 @@
         <v>29706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4360,13 @@
         <v>204609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4327,13 +4375,13 @@
         <v>197894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -4342,13 +4390,13 @@
         <v>402503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,7 +4452,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4416,13 +4464,13 @@
         <v>6269</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -4431,13 +4479,13 @@
         <v>16308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4446,13 +4494,13 @@
         <v>22577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4515,13 @@
         <v>267712</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -4482,13 +4530,13 @@
         <v>262832</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>507</v>
@@ -4497,13 +4545,13 @@
         <v>530544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4619,13 @@
         <v>8451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4586,13 +4634,13 @@
         <v>32889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -4601,13 +4649,13 @@
         <v>41340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4670,13 @@
         <v>654337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>607</v>
@@ -4637,13 +4685,13 @@
         <v>660964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1217</v>
@@ -4652,13 +4700,13 @@
         <v>1315301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4774,13 @@
         <v>10603</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -4741,13 +4789,13 @@
         <v>49779</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -4756,13 +4804,13 @@
         <v>60381</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4825,13 @@
         <v>766369</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>711</v>
@@ -4792,13 +4840,13 @@
         <v>771741</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>1416</v>
@@ -4807,13 +4855,13 @@
         <v>1538111</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4929,13 @@
         <v>71329</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H28" s="7">
         <v>191</v>
@@ -4896,10 +4944,10 @@
         <v>206519</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>295</v>
@@ -4911,13 +4959,13 @@
         <v>277847</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4980,13 @@
         <v>3347859</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>3095</v>
@@ -4947,13 +4995,13 @@
         <v>3338615</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>6234</v>
@@ -4962,13 +5010,13 @@
         <v>6686475</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4A202F-758A-4598-A7D6-244A7F48FD79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE5DBFC-24E8-4A1F-B515-B1F91D289BA0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5065,7 +5113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5172,13 +5220,13 @@
         <v>5885</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5187,13 +5235,13 @@
         <v>11343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>68</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5202,13 +5250,13 @@
         <v>17228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5271,13 @@
         <v>287876</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -5238,13 +5286,13 @@
         <v>277360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -5253,13 +5301,13 @@
         <v>565236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5375,13 @@
         <v>6953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5342,13 +5390,13 @@
         <v>15360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -5357,13 +5405,13 @@
         <v>22313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5426,13 @@
         <v>495622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -5393,13 +5441,13 @@
         <v>507724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
@@ -5408,13 +5456,13 @@
         <v>1003346</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5530,13 @@
         <v>7239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5497,13 +5545,13 @@
         <v>11265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5512,13 +5560,13 @@
         <v>18504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5581,13 @@
         <v>311326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>322</v>
@@ -5548,13 +5596,13 @@
         <v>325044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>648</v>
@@ -5563,13 +5611,13 @@
         <v>636370</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,7 +5673,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5637,13 +5685,13 @@
         <v>6220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5652,13 +5700,13 @@
         <v>16064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5667,13 +5715,13 @@
         <v>22284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5736,13 @@
         <v>363744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -5703,13 +5751,13 @@
         <v>371219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>691</v>
@@ -5718,13 +5766,13 @@
         <v>734963</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,7 +5828,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5792,13 +5840,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5807,13 +5855,13 @@
         <v>12730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5822,13 +5870,13 @@
         <v>12730</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,10 +5891,10 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5858,13 +5906,13 @@
         <v>205857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>424</v>
@@ -5873,13 +5921,13 @@
         <v>417078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,7 +5983,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5947,13 +5995,13 @@
         <v>5333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5962,13 +6010,13 @@
         <v>13298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -5977,13 +6025,13 @@
         <v>18631</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>374</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +6046,13 @@
         <v>257790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6013,13 +6061,13 @@
         <v>259817</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M20" s="7">
         <v>505</v>
@@ -6028,13 +6076,13 @@
         <v>517607</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6150,13 @@
         <v>9960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6117,13 +6165,13 @@
         <v>23583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -6132,13 +6180,13 @@
         <v>33542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6201,13 @@
         <v>646598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>625</v>
@@ -6168,13 +6216,13 @@
         <v>667711</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>1195</v>
@@ -6183,13 +6231,13 @@
         <v>1314310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6305,13 @@
         <v>3606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -6272,13 +6320,13 @@
         <v>30915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>397</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -6287,13 +6335,13 @@
         <v>34522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6356,13 @@
         <v>774977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -6323,13 +6371,13 @@
         <v>795252</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>403</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>1476</v>
@@ -6338,13 +6386,13 @@
         <v>1570228</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6460,13 @@
         <v>45195</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7">
         <v>119</v>
@@ -6427,13 +6475,13 @@
         <v>134558</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="M28" s="7">
         <v>165</v>
@@ -6442,13 +6490,13 @@
         <v>179753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,13 +6511,13 @@
         <v>3349155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H29" s="7">
         <v>3219</v>
@@ -6478,13 +6526,13 @@
         <v>3409984</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>421</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="M29" s="7">
         <v>6404</v>
@@ -6493,13 +6541,13 @@
         <v>6759139</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,7 +6627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513B26FE-3F51-4DA7-9A28-404E2A9D1685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1561611E-44CA-402D-B3C7-F0F60058FE1D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6596,7 +6644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6703,13 +6751,13 @@
         <v>721</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>419</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -6718,13 +6766,13 @@
         <v>9347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6733,13 +6781,13 @@
         <v>10068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6802,13 @@
         <v>259577</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H5" s="7">
         <v>519</v>
@@ -6769,13 +6817,13 @@
         <v>262056</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>849</v>
@@ -6784,13 +6832,13 @@
         <v>521632</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,13 +6906,13 @@
         <v>3720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -6873,13 +6921,13 @@
         <v>10303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>438</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>439</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>434</v>
+        <v>58</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -6888,13 +6936,13 @@
         <v>14023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,10 +6960,10 @@
         <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H8" s="7">
         <v>699</v>
@@ -6924,13 +6972,13 @@
         <v>541970</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>439</v>
+        <v>65</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
         <v>1077</v>
@@ -6939,13 +6987,13 @@
         <v>1056477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +7061,13 @@
         <v>5906</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>450</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -7028,13 +7076,13 @@
         <v>16996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -7043,13 +7091,13 @@
         <v>22902</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>447</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7112,13 @@
         <v>315814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>456</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>457</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -7079,13 +7127,13 @@
         <v>356288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="M11" s="7">
         <v>859</v>
@@ -7094,13 +7142,13 @@
         <v>672101</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>463</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>453</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,7 +7204,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7168,13 +7216,13 @@
         <v>11174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -7183,13 +7231,13 @@
         <v>20112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -7198,13 +7246,13 @@
         <v>31286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,13 +7267,13 @@
         <v>311066</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>470</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>564</v>
@@ -7234,13 +7282,13 @@
         <v>408088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -7249,13 +7297,13 @@
         <v>719154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,7 +7359,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7323,13 +7371,13 @@
         <v>1269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -7338,13 +7386,13 @@
         <v>8339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>479</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -7353,13 +7401,13 @@
         <v>9609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>479</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>481</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7422,13 @@
         <v>195479</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -7389,13 +7437,13 @@
         <v>223564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>487</v>
       </c>
       <c r="M17" s="7">
         <v>748</v>
@@ -7404,13 +7452,13 @@
         <v>419042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>29</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,7 +7514,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7478,13 +7526,13 @@
         <v>7253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -7493,13 +7541,13 @@
         <v>15277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>421</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>491</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -7508,13 +7556,13 @@
         <v>22530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7529,13 +7577,13 @@
         <v>269970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H20" s="7">
         <v>429</v>
@@ -7544,13 +7592,13 @@
         <v>260345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>25</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>787</v>
@@ -7559,13 +7607,13 @@
         <v>530315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7681,13 @@
         <v>14450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -7651,10 +7699,10 @@
         <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -7663,13 +7711,13 @@
         <v>46183</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,13 +7732,13 @@
         <v>612549</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>304</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>490</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>908</v>
@@ -7702,10 +7750,10 @@
         <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M23" s="7">
         <v>1490</v>
@@ -7714,13 +7762,13 @@
         <v>1385019</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,13 +7836,13 @@
         <v>21382</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>494</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -7803,13 +7851,13 @@
         <v>99433</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>239</v>
+        <v>504</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -7818,13 +7866,13 @@
         <v>120815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7887,13 @@
         <v>838046</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>509</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>500</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>925</v>
@@ -7854,13 +7902,13 @@
         <v>765598</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>247</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>1660</v>
@@ -7869,13 +7917,13 @@
         <v>1603644</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,28 +7991,28 @@
         <v>65876</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>360</v>
+        <v>517</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="H28" s="7">
         <v>335</v>
       </c>
       <c r="I28" s="7">
-        <v>211539</v>
+        <v>211540</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>284</v>
+        <v>520</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="M28" s="7">
         <v>416</v>
@@ -7973,13 +8021,13 @@
         <v>277415</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>420</v>
+        <v>523</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,13 +8042,13 @@
         <v>3317006</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>366</v>
+        <v>527</v>
       </c>
       <c r="H29" s="7">
         <v>5023</v>
@@ -8009,28 +8057,28 @@
         <v>3590379</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>530</v>
       </c>
       <c r="M29" s="7">
         <v>8315</v>
       </c>
       <c r="N29" s="7">
-        <v>6907386</v>
+        <v>6907385</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>427</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,7 +8105,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3801918</v>
+        <v>3801919</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8072,7 +8120,7 @@
         <v>8731</v>
       </c>
       <c r="N30" s="7">
-        <v>7184801</v>
+        <v>7184800</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F6A6E30-DCBF-4669-A3E2-535170911D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C72A85-385B-4172-910E-A65AF1BB892B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7143C75C-5528-4B52-8657-09CCECEDA2FA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{595929B6-A35F-411B-8C1C-7EF62129041C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="545">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -581,7 +581,52 @@
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -674,973 +719,961 @@
     <t>97,55%</t>
   </si>
   <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F6F846-0599-4F8F-BE3C-5953D834C8EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4332BB7-8C7C-4D13-9F59-063733B5458B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3479,7 +3512,7 @@
         <v>3133</v>
       </c>
       <c r="I29" s="7">
-        <v>3207666</v>
+        <v>3207665</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>173</v>
@@ -3530,7 +3563,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3583,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45D610-C521-4D18-9D9F-D0C7DC3C1A85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C166DD6D-6ABB-447D-8728-3969C56D1B13}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3701,43 +3734,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5833</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10349</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="N4" s="7">
+        <v>16182</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,43 +3785,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D5" s="7">
+        <v>284370</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="I5" s="7">
+        <v>269994</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>514</v>
+      </c>
+      <c r="N5" s="7">
+        <v>554364</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,43 +3836,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290203</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I6" s="7">
+        <v>280343</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="N6" s="7">
+        <v>570546</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,10 +3898,10 @@
         <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3859,13 +3910,13 @@
         <v>26788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -3874,13 +3925,13 @@
         <v>41513</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,10 +3949,10 @@
         <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -3910,13 +3961,13 @@
         <v>495943</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -3925,10 +3976,10 @@
         <v>986745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>121</v>
@@ -3999,13 +4050,13 @@
         <v>5098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4014,13 +4065,13 @@
         <v>20196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4032,10 +4083,10 @@
         <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4101,13 @@
         <v>318018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -4065,13 +4116,13 @@
         <v>320824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -4083,10 +4134,10 @@
         <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,49 +4199,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>18174</v>
+        <v>12341</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>38861</v>
+        <v>28512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>57035</v>
+        <v>40854</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +4250,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>606</v>
+        <v>333</v>
       </c>
       <c r="D14" s="7">
-        <v>646012</v>
+        <v>361641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
-        <v>582</v>
+        <v>341</v>
       </c>
       <c r="I14" s="7">
-        <v>628417</v>
+        <v>358423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
-        <v>1188</v>
+        <v>674</v>
       </c>
       <c r="N14" s="7">
-        <v>1274429</v>
+        <v>720063</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>664186</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4265,10 +4316,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>619</v>
+        <v>369</v>
       </c>
       <c r="I15" s="7">
-        <v>667278</v>
+        <v>386935</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4280,10 +4331,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1241</v>
+        <v>713</v>
       </c>
       <c r="N15" s="7">
-        <v>1331464</v>
+        <v>760917</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4309,13 +4360,13 @@
         <v>8009</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4324,13 +4375,13 @@
         <v>21697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4339,13 +4390,13 @@
         <v>29706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4411,13 @@
         <v>204609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4375,13 +4426,13 @@
         <v>197894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -4390,10 +4441,10 @@
         <v>402503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>84</v>
@@ -4464,13 +4515,13 @@
         <v>6269</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -4479,13 +4530,13 @@
         <v>16308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4494,13 +4545,13 @@
         <v>22577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4566,13 @@
         <v>267712</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -4530,13 +4581,13 @@
         <v>262832</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>507</v>
@@ -4545,13 +4596,13 @@
         <v>530544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4670,13 @@
         <v>8451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4634,13 +4685,13 @@
         <v>32889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -4649,13 +4700,13 @@
         <v>41340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4721,13 @@
         <v>654337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>607</v>
@@ -4685,13 +4736,13 @@
         <v>660964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>1217</v>
@@ -4700,13 +4751,13 @@
         <v>1315301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4825,13 @@
         <v>10603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -4789,13 +4840,13 @@
         <v>49779</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -4804,13 +4855,13 @@
         <v>60381</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4876,13 @@
         <v>766369</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>711</v>
@@ -4840,13 +4891,13 @@
         <v>771741</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>1416</v>
@@ -4855,13 +4906,13 @@
         <v>1538111</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,10 +4983,10 @@
         <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>191</v>
@@ -4944,13 +4995,13 @@
         <v>206519</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>254</v>
@@ -4962,10 +5013,10 @@
         <v>70</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,10 +5034,10 @@
         <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>3095</v>
@@ -4995,13 +5046,13 @@
         <v>3338615</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>6234</v>
@@ -5013,10 +5064,10 @@
         <v>78</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE5DBFC-24E8-4A1F-B515-B1F91D289BA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FD4F86-485F-4ADE-9856-E5B3754BBCB8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5113,7 +5164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5223,10 +5274,10 @@
         <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5235,13 +5286,13 @@
         <v>11343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5250,13 +5301,13 @@
         <v>17228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,10 +5325,10 @@
         <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -5286,10 +5337,10 @@
         <v>277360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>77</v>
@@ -5301,13 +5352,13 @@
         <v>565236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5426,13 @@
         <v>6953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5390,13 +5441,13 @@
         <v>15360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -5405,13 +5456,13 @@
         <v>22313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5477,13 @@
         <v>495622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -5441,13 +5492,13 @@
         <v>507724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
@@ -5456,13 +5507,13 @@
         <v>1003346</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,10 +5581,10 @@
         <v>7239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>70</v>
@@ -5545,13 +5596,13 @@
         <v>11265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5560,13 +5611,13 @@
         <v>18504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5632,13 @@
         <v>311326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>322</v>
@@ -5596,13 +5647,13 @@
         <v>325044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
         <v>648</v>
@@ -5611,13 +5662,13 @@
         <v>636370</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5736,13 @@
         <v>6220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5700,13 +5751,13 @@
         <v>16064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5715,13 +5766,13 @@
         <v>22284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5787,13 @@
         <v>363744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -5751,13 +5802,13 @@
         <v>371219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>691</v>
@@ -5766,13 +5817,13 @@
         <v>734963</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5891,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5861,7 +5912,7 @@
         <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5870,13 +5921,13 @@
         <v>12730</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,10 +5942,10 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5909,7 +5960,7 @@
         <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>155</v>
@@ -5921,13 +5972,13 @@
         <v>417078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,10 +6046,10 @@
         <v>5333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>87</v>
@@ -6013,10 +6064,10 @@
         <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6025,13 +6076,13 @@
         <v>18631</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6097,13 @@
         <v>257790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6064,10 +6115,10 @@
         <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>505</v>
@@ -6076,13 +6127,13 @@
         <v>517607</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6201,13 @@
         <v>9960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6165,13 +6216,13 @@
         <v>23583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -6183,10 +6234,10 @@
         <v>15</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6252,13 @@
         <v>646598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H23" s="7">
         <v>625</v>
@@ -6216,10 +6267,10 @@
         <v>667711</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>115</v>
@@ -6234,10 +6285,10 @@
         <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6356,13 @@
         <v>3606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -6320,13 +6371,13 @@
         <v>30915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -6335,13 +6386,13 @@
         <v>34522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6407,13 @@
         <v>774977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -6371,13 +6422,13 @@
         <v>795252</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>1476</v>
@@ -6386,13 +6437,13 @@
         <v>1570228</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6511,13 @@
         <v>45195</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="H28" s="7">
         <v>119</v>
@@ -6475,13 +6526,13 @@
         <v>134558</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="M28" s="7">
         <v>165</v>
@@ -6490,10 +6541,10 @@
         <v>179753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -6511,13 +6562,13 @@
         <v>3349155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="H29" s="7">
         <v>3219</v>
@@ -6526,13 +6577,13 @@
         <v>3409984</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="M29" s="7">
         <v>6404</v>
@@ -6541,13 +6592,13 @@
         <v>6759139</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,7 +6678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1561611E-44CA-402D-B3C7-F0F60058FE1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61500C9-7459-4BA2-920A-DFD478C67B4B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6644,7 +6695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6748,46 +6799,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>721</v>
+        <v>760</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>442</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>9347</v>
+        <v>9518</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>10068</v>
+        <v>10278</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,46 +6850,46 @@
         <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>259577</v>
+        <v>310683</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="H5" s="7">
         <v>519</v>
       </c>
       <c r="I5" s="7">
-        <v>262056</v>
+        <v>280117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>849</v>
       </c>
       <c r="N5" s="7">
-        <v>521632</v>
+        <v>590799</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,7 +6901,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6865,7 +6916,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6880,7 +6931,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6903,46 +6954,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3720</v>
+        <v>3552</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>437</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>10303</v>
+        <v>9502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>14023</v>
+        <v>13053</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>370</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,46 +7005,46 @@
         <v>378</v>
       </c>
       <c r="D8" s="7">
-        <v>514507</v>
+        <v>513841</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>442</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="H8" s="7">
         <v>699</v>
       </c>
       <c r="I8" s="7">
-        <v>541970</v>
+        <v>503347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="M8" s="7">
         <v>1077</v>
       </c>
       <c r="N8" s="7">
-        <v>1056477</v>
+        <v>1017189</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,7 +7056,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7020,7 +7071,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>552273</v>
+        <v>512849</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7035,7 +7086,7 @@
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1070500</v>
+        <v>1030242</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7058,46 +7109,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>5906</v>
+        <v>5647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>16996</v>
+        <v>15684</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>22902</v>
+        <v>21331</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,46 +7160,46 @@
         <v>351</v>
       </c>
       <c r="D11" s="7">
-        <v>315814</v>
+        <v>309913</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
       </c>
       <c r="I11" s="7">
-        <v>356288</v>
+        <v>333444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="M11" s="7">
         <v>859</v>
       </c>
       <c r="N11" s="7">
-        <v>672101</v>
+        <v>643357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,7 +7211,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321720</v>
+        <v>315560</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7175,7 +7226,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7190,7 +7241,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695003</v>
+        <v>664688</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7213,46 +7264,46 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>11174</v>
+        <v>10485</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>20112</v>
+        <v>18149</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>466</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>31286</v>
+        <v>28634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>485</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>469</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,46 +7315,46 @@
         <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>311066</v>
+        <v>302072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>564</v>
       </c>
       <c r="I14" s="7">
-        <v>408088</v>
+        <v>457238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>473</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
       </c>
       <c r="N14" s="7">
-        <v>719154</v>
+        <v>759310</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>475</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,7 +7366,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7330,7 +7381,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428200</v>
+        <v>475387</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7345,7 +7396,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750440</v>
+        <v>787944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7368,46 +7419,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1269</v>
+        <v>1169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>8339</v>
+        <v>7617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>479</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>9609</v>
+        <v>8786</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>479</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,46 +7470,46 @@
         <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>195479</v>
+        <v>177573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
       </c>
       <c r="I17" s="7">
-        <v>223564</v>
+        <v>201039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>487</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>748</v>
       </c>
       <c r="N17" s="7">
-        <v>419042</v>
+        <v>378612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>487</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,7 +7521,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7485,7 +7536,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7500,7 +7551,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7523,46 +7574,46 @@
         <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>7253</v>
+        <v>6917</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>490</v>
+        <v>335</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>502</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>15277</v>
+        <v>14112</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>491</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
       </c>
       <c r="N19" s="7">
-        <v>22530</v>
+        <v>21029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,46 +7625,46 @@
         <v>358</v>
       </c>
       <c r="D20" s="7">
-        <v>269970</v>
+        <v>262719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>505</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>506</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>492</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>429</v>
       </c>
       <c r="I20" s="7">
-        <v>260345</v>
+        <v>242944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>787</v>
       </c>
       <c r="N20" s="7">
-        <v>530315</v>
+        <v>505663</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,7 +7676,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7640,7 +7691,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7655,7 +7706,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7678,46 +7729,46 @@
         <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>14450</v>
+        <v>13704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>510</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>511</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>31733</v>
+        <v>29142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>512</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
       </c>
       <c r="N22" s="7">
-        <v>46183</v>
+        <v>42846</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,46 +7780,46 @@
         <v>582</v>
       </c>
       <c r="D23" s="7">
-        <v>612549</v>
+        <v>609860</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>304</v>
+        <v>517</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>518</v>
       </c>
       <c r="H23" s="7">
         <v>908</v>
       </c>
       <c r="I23" s="7">
-        <v>772470</v>
+        <v>820123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>519</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="M23" s="7">
         <v>1490</v>
       </c>
       <c r="N23" s="7">
-        <v>1385019</v>
+        <v>1429982</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>170</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,7 +7831,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626999</v>
+        <v>623564</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7795,7 +7846,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7810,7 +7861,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="7">
-        <v>1431202</v>
+        <v>1472828</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7833,46 +7884,46 @@
         <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>21382</v>
+        <v>18376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>523</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
       </c>
       <c r="I25" s="7">
-        <v>99433</v>
+        <v>82609</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
       </c>
       <c r="N25" s="7">
-        <v>120815</v>
+        <v>100985</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>507</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7884,46 +7935,46 @@
         <v>735</v>
       </c>
       <c r="D26" s="7">
-        <v>838046</v>
+        <v>910344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>26</v>
+        <v>529</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
       <c r="H26" s="7">
         <v>925</v>
       </c>
       <c r="I26" s="7">
-        <v>765598</v>
+        <v>632242</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="M26" s="7">
         <v>1660</v>
       </c>
       <c r="N26" s="7">
-        <v>1603644</v>
+        <v>1542587</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7935,7 +7986,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7950,7 +8001,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7965,7 +8016,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7988,46 +8039,46 @@
         <v>81</v>
       </c>
       <c r="D28" s="7">
-        <v>65876</v>
+        <v>60609</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>335</v>
       </c>
       <c r="I28" s="7">
-        <v>211540</v>
+        <v>186333</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>521</v>
+        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>416</v>
       </c>
       <c r="N28" s="7">
-        <v>277415</v>
+        <v>246942</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>522</v>
+        <v>388</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8039,46 +8090,46 @@
         <v>3292</v>
       </c>
       <c r="D29" s="7">
-        <v>3317006</v>
+        <v>3397006</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="H29" s="7">
         <v>5023</v>
       </c>
       <c r="I29" s="7">
-        <v>3590379</v>
+        <v>3470494</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>529</v>
+        <v>266</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>530</v>
+        <v>288</v>
       </c>
       <c r="M29" s="7">
         <v>8315</v>
       </c>
       <c r="N29" s="7">
-        <v>6907385</v>
+        <v>6867499</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>531</v>
+        <v>395</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8090,7 +8141,7 @@
         <v>3373</v>
       </c>
       <c r="D30" s="7">
-        <v>3382882</v>
+        <v>3457615</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8105,7 +8156,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3801919</v>
+        <v>3656827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8120,7 +8171,7 @@
         <v>8731</v>
       </c>
       <c r="N30" s="7">
-        <v>7184800</v>
+        <v>7114441</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
